--- a/output/test-results.xlsx
+++ b/output/test-results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Test Name</t>
   </si>
@@ -20,13 +20,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>testDarkContrast</t>
+    <t>testAddMultipleItemsToCartAndExport</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>testLightContrast</t>
   </si>
 </sst>
 </file>
@@ -71,14 +68,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.46875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="1" max="1" width="35.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.59375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -97,14 +94,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/test-results.xlsx
+++ b/output/test-results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Test Name</t>
   </si>
@@ -20,22 +20,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>test1_SuccessfulRegistration</t>
+    <t>testDarkContrast</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>test2_DuplicateEmailRegistration</t>
-  </si>
-  <si>
-    <t>test3_RequiredFieldsValidation</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>test4_InvalidPhoneValidation</t>
+    <t>testLightContrast</t>
   </si>
 </sst>
 </file>
@@ -80,13 +71,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.8671875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.46875"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="6.59375"/>
   </cols>
   <sheetData>
@@ -114,22 +105,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
